--- a/data/outputs/management/66.xlsx
+++ b/data/outputs/management/66.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ230"/>
+  <dimension ref="A1:BR230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -919,6 +924,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1122,6 +1128,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>4051909</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1309,6 +1320,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1520,6 +1532,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1735,6 +1748,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>4006820</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1926,6 +1944,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2133,6 +2152,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2320,6 +2340,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2515,6 +2536,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2726,6 +2748,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>4305813</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2925,6 +2952,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3120,6 +3148,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3335,6 +3364,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3538,6 +3568,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3725,6 +3756,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3920,6 +3952,11 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>16808785</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4119,6 +4156,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4306,6 +4344,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4509,6 +4548,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>4160691</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4708,6 +4752,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4895,6 +4940,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5082,6 +5128,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5269,6 +5316,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5476,6 +5524,11 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>4704703</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5663,6 +5716,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5866,6 +5920,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6077,6 +6132,11 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>4152181</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6272,6 +6332,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>4956808</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6471,6 +6536,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6674,6 +6740,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6873,6 +6940,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7080,6 +7148,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7287,6 +7356,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7490,6 +7560,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7705,6 +7776,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7912,6 +7984,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>6138562</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8119,6 +8196,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8322,6 +8400,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8521,6 +8600,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>4129068</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8720,6 +8804,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>33809035</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8927,6 +9016,11 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>3121359</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9142,6 +9236,11 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr">
+        <is>
+          <t>3210483</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9349,6 +9448,11 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>4857762</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9548,6 +9652,11 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr">
+        <is>
+          <t>3816484</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9755,6 +9864,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9950,6 +10060,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>3654942</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10149,6 +10264,11 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>10941766</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10352,6 +10472,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10551,6 +10672,11 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr">
+        <is>
+          <t>4135683</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10758,6 +10884,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10957,6 +11084,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11172,6 +11300,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11379,6 +11508,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11594,6 +11724,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11801,6 +11932,11 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr">
+        <is>
+          <t>4078162</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11988,6 +12124,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12183,6 +12320,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12386,6 +12524,11 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr">
+        <is>
+          <t>4099193</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12573,6 +12716,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12764,6 +12908,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12951,6 +13096,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13138,6 +13284,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13325,6 +13472,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13512,6 +13660,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13719,6 +13868,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13910,6 +14060,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14113,6 +14264,11 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr">
+        <is>
+          <t>3725209</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14320,6 +14476,11 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr">
+        <is>
+          <t>3888273</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14527,6 +14688,11 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr">
+        <is>
+          <t>4141461</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -14734,6 +14900,11 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr">
+        <is>
+          <t>4193536</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -14941,6 +15112,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15136,6 +15308,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15331,6 +15504,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15546,6 +15720,11 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr">
+        <is>
+          <t>3881304</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -15757,6 +15936,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -15964,6 +16144,11 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr">
+        <is>
+          <t>3998554</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16163,6 +16348,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16362,6 +16548,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -16569,6 +16756,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -16784,6 +16972,11 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr">
+        <is>
+          <t>3783422</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -16995,6 +17188,11 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr">
+        <is>
+          <t>3793314</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17206,6 +17404,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17409,6 +17608,11 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr">
+        <is>
+          <t>4512154</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -17608,6 +17812,11 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr">
+        <is>
+          <t>3893008</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -17795,6 +18004,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -17986,6 +18196,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18189,6 +18400,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18392,6 +18604,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -18579,6 +18792,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -18786,6 +19000,11 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr">
+        <is>
+          <t>3920520</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -18993,6 +19212,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19200,6 +19420,11 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr">
+        <is>
+          <t>3735270</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -19403,6 +19628,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -19606,6 +19832,11 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr">
+        <is>
+          <t>3761244</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -19805,6 +20036,11 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr">
+        <is>
+          <t>3767923</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20004,6 +20240,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20211,6 +20448,11 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr">
+        <is>
+          <t>2919667</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -20418,6 +20660,11 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr">
+        <is>
+          <t>2935335</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -20625,6 +20872,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -20840,6 +21088,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21047,6 +21296,11 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr">
+        <is>
+          <t>2951591</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21262,6 +21516,11 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr">
+        <is>
+          <t>3078753</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -21473,6 +21732,11 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr">
+        <is>
+          <t>4002385</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -21672,6 +21936,11 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr">
+        <is>
+          <t>3734105</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -21879,6 +22148,11 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr">
+        <is>
+          <t>4550847</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22086,6 +22360,7 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -22293,6 +22568,11 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr">
+        <is>
+          <t>2998602</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -22496,6 +22776,11 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr">
+        <is>
+          <t>3827412</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -22695,6 +22980,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -22902,6 +23188,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23113,6 +23400,11 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr">
+        <is>
+          <t>3086430</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -23320,6 +23612,11 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr">
+        <is>
+          <t>3738835</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -23519,6 +23816,11 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr">
+        <is>
+          <t>3770719</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -23734,6 +24036,11 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr">
+        <is>
+          <t>3774470</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -23937,6 +24244,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24148,6 +24456,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -24347,6 +24656,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -24562,6 +24872,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -24773,6 +25084,11 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr">
+        <is>
+          <t>3775664</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -24988,6 +25304,11 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr">
+        <is>
+          <t>3852660</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -25175,6 +25496,11 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr">
+        <is>
+          <t>4512685</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -25382,6 +25708,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -25569,6 +25896,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -25756,6 +26084,7 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -25963,6 +26292,11 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr">
+        <is>
+          <t>3017522</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -26170,6 +26504,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -26381,6 +26716,7 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -26588,6 +26924,7 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -26795,6 +27132,11 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr">
+        <is>
+          <t>3043149</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -27006,6 +27348,11 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr">
+        <is>
+          <t>9766507</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -27193,6 +27540,7 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -27392,6 +27740,11 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr">
+        <is>
+          <t>3836232</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -27599,6 +27952,7 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -27814,6 +28168,7 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -28017,6 +28372,7 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -28216,6 +28572,11 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr">
+        <is>
+          <t>3106854</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -28415,6 +28776,11 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr">
+        <is>
+          <t>4513064</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -28622,6 +28988,11 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr">
+        <is>
+          <t>15063037</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -28825,6 +29196,7 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -29032,6 +29404,11 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr">
+        <is>
+          <t>2734990</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -29231,6 +29608,11 @@
         </is>
       </c>
       <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr">
+        <is>
+          <t>2940607</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -29438,6 +29820,7 @@
         </is>
       </c>
       <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -29645,6 +30028,11 @@
         </is>
       </c>
       <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr">
+        <is>
+          <t>5519730</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -29852,6 +30240,7 @@
         </is>
       </c>
       <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -30059,6 +30448,7 @@
         </is>
       </c>
       <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -30258,6 +30648,7 @@
         </is>
       </c>
       <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -30457,6 +30848,11 @@
         </is>
       </c>
       <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="inlineStr">
+        <is>
+          <t>2827012</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -30664,6 +31060,11 @@
         </is>
       </c>
       <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr">
+        <is>
+          <t>8543277</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -30871,6 +31272,11 @@
         </is>
       </c>
       <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr">
+        <is>
+          <t>2850724</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -31078,6 +31484,7 @@
         </is>
       </c>
       <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -31289,6 +31696,11 @@
         </is>
       </c>
       <c r="BQ152" t="inlineStr"/>
+      <c r="BR152" t="inlineStr">
+        <is>
+          <t>2756587</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -31500,6 +31912,11 @@
         </is>
       </c>
       <c r="BQ153" t="inlineStr"/>
+      <c r="BR153" t="inlineStr">
+        <is>
+          <t>2750063</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -31699,6 +32116,7 @@
         </is>
       </c>
       <c r="BQ154" t="inlineStr"/>
+      <c r="BR154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -31886,6 +32304,7 @@
         </is>
       </c>
       <c r="BQ155" t="inlineStr"/>
+      <c r="BR155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -32093,6 +32512,11 @@
         </is>
       </c>
       <c r="BQ156" t="inlineStr"/>
+      <c r="BR156" t="inlineStr">
+        <is>
+          <t>4400334</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -32292,6 +32716,7 @@
         </is>
       </c>
       <c r="BQ157" t="inlineStr"/>
+      <c r="BR157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -32503,6 +32928,7 @@
         </is>
       </c>
       <c r="BQ158" t="inlineStr"/>
+      <c r="BR158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -32710,6 +33136,7 @@
         </is>
       </c>
       <c r="BQ159" t="inlineStr"/>
+      <c r="BR159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -32909,6 +33336,7 @@
         </is>
       </c>
       <c r="BQ160" t="inlineStr"/>
+      <c r="BR160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -33096,6 +33524,7 @@
         </is>
       </c>
       <c r="BQ161" t="inlineStr"/>
+      <c r="BR161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -33295,6 +33724,11 @@
         </is>
       </c>
       <c r="BQ162" t="inlineStr"/>
+      <c r="BR162" t="inlineStr">
+        <is>
+          <t>2831025</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -33498,6 +33932,7 @@
         </is>
       </c>
       <c r="BQ163" t="inlineStr"/>
+      <c r="BR163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -33697,6 +34132,7 @@
         </is>
       </c>
       <c r="BQ164" t="inlineStr"/>
+      <c r="BR164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -33904,6 +34340,11 @@
         </is>
       </c>
       <c r="BQ165" t="inlineStr"/>
+      <c r="BR165" t="inlineStr">
+        <is>
+          <t>2856003</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -34091,6 +34532,7 @@
         </is>
       </c>
       <c r="BQ166" t="inlineStr"/>
+      <c r="BR166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -34290,6 +34732,7 @@
         </is>
       </c>
       <c r="BQ167" t="inlineStr"/>
+      <c r="BR167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -34497,6 +34940,7 @@
         </is>
       </c>
       <c r="BQ168" t="inlineStr"/>
+      <c r="BR168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -34700,6 +35144,7 @@
         </is>
       </c>
       <c r="BQ169" t="inlineStr"/>
+      <c r="BR169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -34899,6 +35344,7 @@
         </is>
       </c>
       <c r="BQ170" t="inlineStr"/>
+      <c r="BR170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -35102,6 +35548,7 @@
         </is>
       </c>
       <c r="BQ171" t="inlineStr"/>
+      <c r="BR171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -35301,6 +35748,11 @@
         </is>
       </c>
       <c r="BQ172" t="inlineStr"/>
+      <c r="BR172" t="inlineStr">
+        <is>
+          <t>2857990</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -35500,6 +35952,7 @@
         </is>
       </c>
       <c r="BQ173" t="inlineStr"/>
+      <c r="BR173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -35699,6 +36152,7 @@
         </is>
       </c>
       <c r="BQ174" t="inlineStr"/>
+      <c r="BR174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -35906,6 +36360,7 @@
         </is>
       </c>
       <c r="BQ175" t="inlineStr"/>
+      <c r="BR175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -36113,6 +36568,7 @@
         </is>
       </c>
       <c r="BQ176" t="inlineStr"/>
+      <c r="BR176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -36320,6 +36776,7 @@
         </is>
       </c>
       <c r="BQ177" t="inlineStr"/>
+      <c r="BR177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -36519,6 +36976,7 @@
         </is>
       </c>
       <c r="BQ178" t="inlineStr"/>
+      <c r="BR178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -36726,6 +37184,11 @@
         </is>
       </c>
       <c r="BQ179" t="inlineStr"/>
+      <c r="BR179" t="inlineStr">
+        <is>
+          <t>2508504</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -36933,6 +37396,7 @@
         </is>
       </c>
       <c r="BQ180" t="inlineStr"/>
+      <c r="BR180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -37140,6 +37604,7 @@
         </is>
       </c>
       <c r="BQ181" t="inlineStr"/>
+      <c r="BR181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -37343,6 +37808,11 @@
         </is>
       </c>
       <c r="BQ182" t="inlineStr"/>
+      <c r="BR182" t="inlineStr">
+        <is>
+          <t>2524695</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -37550,6 +38020,7 @@
         </is>
       </c>
       <c r="BQ183" t="inlineStr"/>
+      <c r="BR183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -37757,6 +38228,11 @@
         </is>
       </c>
       <c r="BQ184" t="inlineStr"/>
+      <c r="BR184" t="inlineStr">
+        <is>
+          <t>2530562</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -37960,6 +38436,11 @@
         </is>
       </c>
       <c r="BQ185" t="inlineStr"/>
+      <c r="BR185" t="inlineStr">
+        <is>
+          <t>41591389</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -38159,6 +38640,11 @@
         </is>
       </c>
       <c r="BQ186" t="inlineStr"/>
+      <c r="BR186" t="inlineStr">
+        <is>
+          <t>2542629</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -38362,6 +38848,11 @@
         </is>
       </c>
       <c r="BQ187" t="inlineStr"/>
+      <c r="BR187" t="inlineStr">
+        <is>
+          <t>2601957</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -38569,6 +39060,7 @@
         </is>
       </c>
       <c r="BQ188" t="inlineStr"/>
+      <c r="BR188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -38772,6 +39264,7 @@
         </is>
       </c>
       <c r="BQ189" t="inlineStr"/>
+      <c r="BR189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -38979,6 +39472,7 @@
         </is>
       </c>
       <c r="BQ190" t="inlineStr"/>
+      <c r="BR190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -39186,6 +39680,7 @@
         </is>
       </c>
       <c r="BQ191" t="inlineStr"/>
+      <c r="BR191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -39393,6 +39888,7 @@
         </is>
       </c>
       <c r="BQ192" t="inlineStr"/>
+      <c r="BR192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -39600,6 +40096,11 @@
         </is>
       </c>
       <c r="BQ193" t="inlineStr"/>
+      <c r="BR193" t="inlineStr">
+        <is>
+          <t>2692279</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -39799,6 +40300,7 @@
         </is>
       </c>
       <c r="BQ194" t="inlineStr"/>
+      <c r="BR194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -39998,6 +40500,7 @@
         </is>
       </c>
       <c r="BQ195" t="inlineStr"/>
+      <c r="BR195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -40201,6 +40704,7 @@
         </is>
       </c>
       <c r="BQ196" t="inlineStr"/>
+      <c r="BR196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -40404,6 +40908,7 @@
         </is>
       </c>
       <c r="BQ197" t="inlineStr"/>
+      <c r="BR197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -40607,6 +41112,7 @@
         </is>
       </c>
       <c r="BQ198" t="inlineStr"/>
+      <c r="BR198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -40818,6 +41324,11 @@
         </is>
       </c>
       <c r="BQ199" t="inlineStr"/>
+      <c r="BR199" t="inlineStr">
+        <is>
+          <t>5038599</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -41017,6 +41528,7 @@
         </is>
       </c>
       <c r="BQ200" t="inlineStr"/>
+      <c r="BR200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -41224,6 +41736,7 @@
         </is>
       </c>
       <c r="BQ201" t="inlineStr"/>
+      <c r="BR201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -41423,6 +41936,7 @@
         </is>
       </c>
       <c r="BQ202" t="inlineStr"/>
+      <c r="BR202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -41610,6 +42124,7 @@
         </is>
       </c>
       <c r="BQ203" t="inlineStr"/>
+      <c r="BR203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -41817,6 +42332,7 @@
         </is>
       </c>
       <c r="BQ204" t="inlineStr"/>
+      <c r="BR204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -42016,6 +42532,11 @@
         </is>
       </c>
       <c r="BQ205" t="inlineStr"/>
+      <c r="BR205" t="inlineStr">
+        <is>
+          <t>2503073</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -42219,6 +42740,11 @@
         </is>
       </c>
       <c r="BQ206" t="inlineStr"/>
+      <c r="BR206" t="inlineStr">
+        <is>
+          <t>2889290</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -42418,6 +42944,7 @@
         </is>
       </c>
       <c r="BQ207" t="inlineStr"/>
+      <c r="BR207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -42625,6 +43152,11 @@
         </is>
       </c>
       <c r="BQ208" t="inlineStr"/>
+      <c r="BR208" t="inlineStr">
+        <is>
+          <t>2512854</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -42832,6 +43364,7 @@
         </is>
       </c>
       <c r="BQ209" t="inlineStr"/>
+      <c r="BR209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -43039,6 +43572,7 @@
         </is>
       </c>
       <c r="BQ210" t="inlineStr"/>
+      <c r="BR210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -43246,6 +43780,7 @@
         </is>
       </c>
       <c r="BQ211" t="inlineStr"/>
+      <c r="BR211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -43445,6 +43980,7 @@
         </is>
       </c>
       <c r="BQ212" t="inlineStr"/>
+      <c r="BR212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -43644,6 +44180,7 @@
         </is>
       </c>
       <c r="BQ213" t="inlineStr"/>
+      <c r="BR213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -43843,6 +44380,7 @@
         </is>
       </c>
       <c r="BQ214" t="inlineStr"/>
+      <c r="BR214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -44050,6 +44588,7 @@
         </is>
       </c>
       <c r="BQ215" t="inlineStr"/>
+      <c r="BR215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -44257,6 +44796,11 @@
         </is>
       </c>
       <c r="BQ216" t="inlineStr"/>
+      <c r="BR216" t="inlineStr">
+        <is>
+          <t>2586231</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -44456,6 +45000,7 @@
         </is>
       </c>
       <c r="BQ217" t="inlineStr"/>
+      <c r="BR217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -44663,6 +45208,7 @@
         </is>
       </c>
       <c r="BQ218" t="inlineStr"/>
+      <c r="BR218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -44870,6 +45416,11 @@
         </is>
       </c>
       <c r="BQ219" t="inlineStr"/>
+      <c r="BR219" t="inlineStr">
+        <is>
+          <t>2636341</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -45069,6 +45620,11 @@
         </is>
       </c>
       <c r="BQ220" t="inlineStr"/>
+      <c r="BR220" t="inlineStr">
+        <is>
+          <t>2703116</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -45268,6 +45824,7 @@
         </is>
       </c>
       <c r="BQ221" t="inlineStr"/>
+      <c r="BR221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -45467,6 +46024,7 @@
         </is>
       </c>
       <c r="BQ222" t="inlineStr"/>
+      <c r="BR222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -45674,6 +46232,11 @@
         </is>
       </c>
       <c r="BQ223" t="inlineStr"/>
+      <c r="BR223" t="inlineStr">
+        <is>
+          <t>2686686</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -45873,6 +46436,7 @@
         </is>
       </c>
       <c r="BQ224" t="inlineStr"/>
+      <c r="BR224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -46072,6 +46636,7 @@
         </is>
       </c>
       <c r="BQ225" t="inlineStr"/>
+      <c r="BR225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -46267,6 +46832,7 @@
         </is>
       </c>
       <c r="BQ226" t="inlineStr"/>
+      <c r="BR226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -46470,6 +47036,7 @@
         </is>
       </c>
       <c r="BQ227" t="inlineStr"/>
+      <c r="BR227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -46669,6 +47236,7 @@
         </is>
       </c>
       <c r="BQ228" t="inlineStr"/>
+      <c r="BR228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -46872,6 +47440,7 @@
         </is>
       </c>
       <c r="BQ229" t="inlineStr"/>
+      <c r="BR229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -47071,6 +47640,7 @@
         </is>
       </c>
       <c r="BQ230" t="inlineStr"/>
+      <c r="BR230" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
